--- a/gd/体验反馈/2016-1-14体验问题.xlsx
+++ b/gd/体验反馈/2016-1-14体验问题.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26124"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26207"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/gd/体验反馈/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MichaelTong/Desktop/GameGiraffe SVN/gd/体验反馈/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="460" windowWidth="35580" windowHeight="19980" activeTab="3"/>
+    <workbookView xWindow="3960" yWindow="900" windowWidth="31840" windowHeight="19000" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="对局" sheetId="3" r:id="rId1"/>
@@ -19,15 +19,17 @@
     <sheet name="其他" sheetId="5" r:id="rId5"/>
     <sheet name="MT 上版本" sheetId="6" r:id="rId6"/>
     <sheet name="MT 1.15 版本" sheetId="7" r:id="rId7"/>
+    <sheet name="MT1.17版本" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'MT 1.15 版本'!$A$1:$E$70</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'MT 上版本'!$A$1:$F$92</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">成长!$A$1:$E$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">任务!$A$1:$F$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">其他!$A$1:$F$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">宠物!$A$1:$F$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">对局!$A$1:$G$81</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">其他!$A$1:$F$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">任务!$A$1:$F$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">成长!$A$1:$E$63</definedName>
   </definedNames>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="464">
   <si>
     <t>初始送了2只，召唤了1只，一共3只怪？怎么记得应该是2只怪</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1564,6 +1566,213 @@
     <t>1910 1911</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>多了一个joker</t>
+  </si>
+  <si>
+    <t>chione任务错误</t>
+  </si>
+  <si>
+    <t>第一二关小怪两下比一下好</t>
+  </si>
+  <si>
+    <t>冰雪女王 - 碎片tips</t>
+  </si>
+  <si>
+    <t>副本终止后Okay 是否应该转主界面？</t>
+  </si>
+  <si>
+    <t>defense 改为 Defense， 考虑多给点时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">对局之间按大招的结果不同。 </t>
+  </si>
+  <si>
+    <t>点了一个大招，幕布过后， 再点大招还是不让出的。</t>
+  </si>
+  <si>
+    <t>死剩一个healer的时候特别想推出对局</t>
+  </si>
+  <si>
+    <t>失败界面是否应该还有怪的头像</t>
+  </si>
+  <si>
+    <t>集火弱点的有效时间感觉不对。</t>
+  </si>
+  <si>
+    <t>AOE打弱点问题</t>
+  </si>
+  <si>
+    <t>扫荡任务好像完成条件错误</t>
+  </si>
+  <si>
+    <t>商店 UI问题 字过长</t>
+  </si>
+  <si>
+    <t>全三星是任何和副本都配置了？</t>
+  </si>
+  <si>
+    <t>花魄点不到弱点。。。。</t>
+  </si>
+  <si>
+    <t>1-2 倍数</t>
+  </si>
+  <si>
+    <t>负责</t>
+  </si>
+  <si>
+    <t>方案</t>
+  </si>
+  <si>
+    <t>英文boss描述</t>
+  </si>
+  <si>
+    <t>22前，后</t>
+  </si>
+  <si>
+    <t>现在</t>
+  </si>
+  <si>
+    <t>雷神 - 没法穿满3件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">帅帅，铁马 -  大招有时候点不上  </t>
+  </si>
+  <si>
+    <t>胖子 - 对局聊天崩溃</t>
+  </si>
+  <si>
+    <t>雪龙 - 钻石购买金币界面点确定后不关闭。在确定还会继续购买</t>
+  </si>
+  <si>
+    <t>在关闭图鉴后，重新打开宠物界面没有切换到拥有的宠物页签</t>
+  </si>
+  <si>
+    <t>小珍 - 战斗永不结束</t>
+  </si>
+  <si>
+    <t>云翔 - 战斗的时候如果两个一样的怪，我能看到哪个怪的装备好吗</t>
+  </si>
+  <si>
+    <t>小珍 - 1.合成背景太黑，合成效果太简陋，没有喜悦感</t>
+  </si>
+  <si>
+    <t>2. 经验药水在背包里找不到，只能在宠物那里用，有点不解</t>
+  </si>
+  <si>
+    <t>小珍 - 3.曼陀罗的藤曼特效太难看了</t>
+  </si>
+  <si>
+    <t>4.宠物界面左右切换略卡</t>
+  </si>
+  <si>
+    <t>5.不懂怪头上的#是生啥气呢</t>
+  </si>
+  <si>
+    <t>胖子 - 钱够，还让我充值[Grimace]</t>
+  </si>
+  <si>
+    <t>胖子 - 商店界面啥都没有了</t>
+  </si>
+  <si>
+    <t>雷神 - 任务文案：1.打过就行，是说打了就行还是打通就行？2.挑战副本3次，是说打3个随意副本还是打挑战难度副本3次？</t>
+  </si>
+  <si>
+    <t>木木 - 2-8 大招镜头 大树都出去了</t>
+  </si>
+  <si>
+    <t>小珍 - 6.狼人的弱点不容易照，他抖得太快</t>
+  </si>
+  <si>
+    <t>7.图鉴点怪没反应，要点好几次</t>
+  </si>
+  <si>
+    <t>8.normal store进去没东西，刷新没反应。重启后解决</t>
+  </si>
+  <si>
+    <t>9.狂点经验药，不能吃以后，不停弹提示，应该智能点</t>
+  </si>
+  <si>
+    <t>雷神 - boss凯瑞斯模型上的脚本丢失，客户端卡死，应该是美术传的时候丢的</t>
+  </si>
+  <si>
+    <t>木木 - 1.在宠物列表或图鉴筛选五行后切到另外一个不还原为默认，关界面重开后筛选也不清，以为自己怪丢了</t>
+  </si>
+  <si>
+    <t>2.boss对局己方小怪血条和IM界面重叠</t>
+  </si>
+  <si>
+    <t>3.任务交付领奖时，后面界面刷的有问题</t>
+  </si>
+  <si>
+    <t>4.2-8 大招镜头 大树都出去了</t>
+  </si>
+  <si>
+    <t>小珍 - 10.狂点使用经验药，三个药水中文名字会错乱</t>
+  </si>
+  <si>
+    <t>这个界面正常吗</t>
+  </si>
+  <si>
+    <t>11.对战斗弹出“克制”不理解，不知道是克制攻击方还是被攻击方</t>
+  </si>
+  <si>
+    <t>胖子 - 感觉分页签反了</t>
+  </si>
+  <si>
+    <t>扫荡界面升级 没有弹出升级提示</t>
+  </si>
+  <si>
+    <t>师叔 - 玫瑰太难点了</t>
+  </si>
+  <si>
+    <t>今天</t>
+  </si>
+  <si>
+    <t>22后</t>
+  </si>
+  <si>
+    <t>胖子</t>
+  </si>
+  <si>
+    <t>等推出按钮</t>
+  </si>
+  <si>
+    <t>没什么好方法</t>
+  </si>
+  <si>
+    <t>之后改进</t>
+  </si>
+  <si>
+    <t>雪姬</t>
+  </si>
+  <si>
+    <t>帆爷</t>
+  </si>
+  <si>
+    <t>纯度降低</t>
+  </si>
+  <si>
+    <t>ZZ</t>
+  </si>
+  <si>
+    <t>这个好像没什么方法</t>
+  </si>
+  <si>
+    <t>老李</t>
+  </si>
+  <si>
+    <t>场景镜头不对</t>
+  </si>
+  <si>
+    <t>这个以后改？</t>
+  </si>
+  <si>
+    <t>Bug</t>
+  </si>
+  <si>
+    <t>雷神</t>
+  </si>
 </sst>
 </file>
 
@@ -1573,7 +1782,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1586,7 +1795,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1606,7 +1815,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1614,7 +1823,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1622,7 +1831,7 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1736,21 +1945,21 @@
     </xf>
   </cellXfs>
   <cellStyles count="15">
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2292,7 +2501,7 @@
       </c>
       <c r="I23" s="3"/>
     </row>
-    <row r="25" spans="1:9" ht="48" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="64" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>12</v>
       </c>
@@ -2695,7 +2904,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>31</v>
       </c>
@@ -2751,7 +2960,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="48" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="64" x14ac:dyDescent="0.25">
       <c r="B73" s="12" t="s">
         <v>105</v>
       </c>
@@ -3208,7 +3417,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="32" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="48" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>16</v>
       </c>
@@ -3556,7 +3765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -4003,14 +4212,14 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="51.83203125" style="9" customWidth="1"/>
     <col min="3" max="3" width="33.33203125" style="10" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>122</v>
       </c>
@@ -4024,12 +4233,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>123</v>
       </c>
@@ -4043,7 +4252,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>124</v>
       </c>
@@ -4054,7 +4263,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>125</v>
       </c>
@@ -4071,7 +4280,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>126</v>
       </c>
@@ -4082,7 +4291,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>127</v>
       </c>
@@ -4099,7 +4308,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>128</v>
       </c>
@@ -4113,7 +4322,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>129</v>
       </c>
@@ -4124,7 +4333,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>130</v>
       </c>
@@ -4138,7 +4347,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>131</v>
       </c>
@@ -4152,12 +4361,12 @@
         <v>332</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>42371</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>132</v>
       </c>
@@ -4168,7 +4377,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>133</v>
       </c>
@@ -4176,7 +4385,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>134</v>
       </c>
@@ -4190,12 +4399,12 @@
         <v>337</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>42372</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>135</v>
       </c>
@@ -4209,7 +4418,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>136</v>
       </c>
@@ -4220,17 +4429,17 @@
         <v>336</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="112" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="120" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>139</v>
       </c>
@@ -4238,7 +4447,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>140</v>
       </c>
@@ -4249,12 +4458,12 @@
         <v>342</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>42373</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>141</v>
       </c>
@@ -4268,12 +4477,12 @@
         <v>332</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>143</v>
       </c>
@@ -4287,7 +4496,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>144</v>
       </c>
@@ -4298,12 +4507,12 @@
         <v>344</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
         <v>42375</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="24" t="s">
         <v>145</v>
       </c>
@@ -4317,7 +4526,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>146</v>
       </c>
@@ -4334,12 +4543,12 @@
         <v>346</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="9">
         <v>42376</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>147</v>
       </c>
@@ -4353,12 +4562,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="9">
         <v>42377</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>148</v>
       </c>
@@ -4372,7 +4581,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>149</v>
       </c>
@@ -4386,12 +4595,12 @@
         <v>350</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="9">
         <v>42401</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>150</v>
       </c>
@@ -4405,7 +4614,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>151</v>
       </c>
@@ -4419,7 +4628,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="112" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" ht="120" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>152</v>
       </c>
@@ -4427,12 +4636,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="9">
         <v>42402</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>153</v>
       </c>
@@ -4446,7 +4655,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
         <v>154</v>
       </c>
@@ -4463,12 +4672,12 @@
         <v>386</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="9">
         <v>42403</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
         <v>155</v>
       </c>
@@ -4485,12 +4694,12 @@
         <v>386</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="9">
         <v>42404</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
         <v>156</v>
       </c>
@@ -4504,7 +4713,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>157</v>
       </c>
@@ -4512,7 +4721,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>158</v>
       </c>
@@ -4526,12 +4735,12 @@
         <v>354</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="9">
         <v>42405</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
         <v>159</v>
       </c>
@@ -4545,7 +4754,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
         <v>160</v>
       </c>
@@ -4559,12 +4768,12 @@
         <v>355</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="9">
         <v>42406</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
         <v>161</v>
       </c>
@@ -4578,7 +4787,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
         <v>162</v>
       </c>
@@ -4592,12 +4801,12 @@
         <v>349</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="9">
         <v>42407</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
         <v>163</v>
       </c>
@@ -4614,12 +4823,12 @@
         <v>388</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
         <v>165</v>
       </c>
@@ -4636,12 +4845,12 @@
         <v>388</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="9">
         <v>42408</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
         <v>166</v>
       </c>
@@ -4674,14 +4883,14 @@
       <selection activeCell="E70" sqref="A70:E70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.1640625" style="10" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="10"/>
     <col min="4" max="4" width="38.6640625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>333</v>
       </c>
@@ -4692,7 +4901,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>193</v>
       </c>
@@ -4706,7 +4915,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>194</v>
       </c>
@@ -4717,7 +4926,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>195</v>
       </c>
@@ -4731,22 +4940,22 @@
         <v>388</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>222</v>
       </c>
@@ -4760,22 +4969,22 @@
         <v>388</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>201</v>
       </c>
@@ -4783,7 +4992,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>202</v>
       </c>
@@ -4794,17 +5003,17 @@
         <v>363</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>205</v>
       </c>
@@ -4812,27 +5021,27 @@
         <v>364</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>208</v>
       </c>
@@ -4846,7 +5055,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
         <v>368</v>
       </c>
@@ -4860,7 +5069,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>209</v>
       </c>
@@ -4871,7 +5080,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
         <v>210</v>
       </c>
@@ -4882,7 +5091,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
         <v>211</v>
       </c>
@@ -4896,12 +5105,12 @@
         <v>388</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
         <v>42375</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>212</v>
       </c>
@@ -4915,7 +5124,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
         <v>213</v>
       </c>
@@ -4929,12 +5138,12 @@
         <v>386</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="11">
         <v>42377</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
         <v>214</v>
       </c>
@@ -4948,7 +5157,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
         <v>215</v>
       </c>
@@ -4962,12 +5171,12 @@
         <v>386</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="11">
         <v>42401</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>216</v>
       </c>
@@ -4978,27 +5187,27 @@
         <v>378</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="11">
         <v>42404</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="11">
         <v>42407</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
         <v>219</v>
       </c>
@@ -5012,12 +5221,12 @@
         <v>388</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
         <v>380</v>
       </c>
@@ -5036,4 +5245,381 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView zoomScale="236" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>411</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="231" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="61.33203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="C1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="C7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="C8" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="C9" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="C11" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="C13" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="C17" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="C18" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="C22" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="C28" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="C30" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>447</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/gd/体验反馈/2016-1-14体验问题.xlsx
+++ b/gd/体验反馈/2016-1-14体验问题.xlsx
@@ -20,7 +20,7 @@
     <sheet name="MT 上版本" sheetId="6" r:id="rId6"/>
     <sheet name="MT 1.15 版本" sheetId="7" r:id="rId7"/>
     <sheet name="MT1.17版本" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
+    <sheet name="1.18版本" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'MT 1.15 版本'!$A$1:$E$70</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="487">
   <si>
     <t>初始送了2只，召唤了1只，一共3只怪？怎么记得应该是2只怪</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1741,9 +1741,6 @@
     <t>没什么好方法</t>
   </si>
   <si>
-    <t>之后改进</t>
-  </si>
-  <si>
     <t>雪姬</t>
   </si>
   <si>
@@ -1765,13 +1762,85 @@
     <t>场景镜头不对</t>
   </si>
   <si>
-    <t>这个以后改？</t>
-  </si>
-  <si>
     <t>Bug</t>
   </si>
   <si>
     <t>雷神</t>
+  </si>
+  <si>
+    <t>不管</t>
+  </si>
+  <si>
+    <t>雷神，胖子</t>
+  </si>
+  <si>
+    <t>bug</t>
+  </si>
+  <si>
+    <t>bug，可能跟复活有关</t>
+  </si>
+  <si>
+    <t>设计如此</t>
+  </si>
+  <si>
+    <t>改设计</t>
+  </si>
+  <si>
+    <t>新增功能</t>
+  </si>
+  <si>
+    <t>以后考虑</t>
+  </si>
+  <si>
+    <t>也许跳转</t>
+  </si>
+  <si>
+    <t>看看能不能重现，找雷神</t>
+  </si>
+  <si>
+    <t>已经说了</t>
+  </si>
+  <si>
+    <t>把文案发给mt</t>
+  </si>
+  <si>
+    <t>先不改</t>
+  </si>
+  <si>
+    <t>同上</t>
+  </si>
+  <si>
+    <t>等新配置</t>
+  </si>
+  <si>
+    <t>就是不管</t>
+  </si>
+  <si>
+    <t>兔嗓</t>
+  </si>
+  <si>
+    <t>碰撞盒再大一点</t>
+  </si>
+  <si>
+    <t>返回按钮不好点</t>
+  </si>
+  <si>
+    <t>登陆选择服务器不好点</t>
+  </si>
+  <si>
+    <t>看看响应范围，位置不要太靠边</t>
+  </si>
+  <si>
+    <t>铁马</t>
+  </si>
+  <si>
+    <t>主UI-任务按钮</t>
+  </si>
+  <si>
+    <t>把对勾去掉</t>
+  </si>
+  <si>
+    <t>以后找时间</t>
   </si>
 </sst>
 </file>
@@ -5371,10 +5440,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="231" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="210" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5402,44 +5471,83 @@
       <c r="A2" s="10" t="s">
         <v>417</v>
       </c>
+      <c r="C2" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>418</v>
       </c>
+      <c r="B3" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="C3" t="s">
+        <v>465</v>
+      </c>
+      <c r="D3" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>419</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>450</v>
+        <v>463</v>
+      </c>
+      <c r="C4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D4" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>420</v>
       </c>
+      <c r="C5" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>421</v>
       </c>
+      <c r="B6" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="E6" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>422</v>
       </c>
+      <c r="B7" s="10" t="s">
+        <v>450</v>
+      </c>
       <c r="C7" t="s">
         <v>451</v>
+      </c>
+      <c r="E7" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>423</v>
       </c>
+      <c r="B8" s="10" t="s">
+        <v>450</v>
+      </c>
       <c r="C8" t="s">
         <v>452</v>
+      </c>
+      <c r="E8" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -5447,26 +5555,38 @@
         <v>424</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="C9" t="s">
         <v>453</v>
+      </c>
+      <c r="E9" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>425</v>
       </c>
+      <c r="B10" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="C10" t="s">
+        <v>470</v>
+      </c>
+      <c r="E10" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>426</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="C11" t="s">
         <v>455</v>
       </c>
-      <c r="C11" t="s">
-        <v>456</v>
+      <c r="E11" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -5474,7 +5594,7 @@
         <v>427</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -5482,20 +5602,29 @@
         <v>428</v>
       </c>
       <c r="C13" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>429</v>
       </c>
+      <c r="B14" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="C14" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>430</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
+      </c>
+      <c r="C15" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -5503,10 +5632,13 @@
         <v>431</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+      <c r="C16" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>432</v>
       </c>
@@ -5514,109 +5646,199 @@
         <v>450</v>
       </c>
       <c r="C17" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>433</v>
       </c>
       <c r="C18" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>474</v>
+      </c>
+      <c r="E18" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>434</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>435</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="B21" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="E21" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>437</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C22" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="C23" t="s">
+        <v>475</v>
+      </c>
+      <c r="E23" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="C24" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="C26" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="10" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>443</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C28" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>445</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C30" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B31" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="C31" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>447</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="C32" t="s">
+        <v>479</v>
+      </c>
+      <c r="D32" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="C33" t="s">
+        <v>482</v>
+      </c>
+      <c r="E33" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="E34" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="C35" t="s">
+        <v>485</v>
       </c>
     </row>
   </sheetData>

--- a/gd/体验反馈/2016-1-14体验问题.xlsx
+++ b/gd/体验反馈/2016-1-14体验问题.xlsx
@@ -1,35 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26124"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MichaelTong/Desktop/GameGiraffe SVN/gd/体验反馈/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/gd/体验反馈/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="900" windowWidth="31840" windowHeight="19000" activeTab="8"/>
+    <workbookView xWindow="4140" yWindow="880" windowWidth="31840" windowHeight="19000"/>
   </bookViews>
   <sheets>
-    <sheet name="对局" sheetId="3" r:id="rId1"/>
-    <sheet name="成长" sheetId="4" r:id="rId2"/>
-    <sheet name="宠物" sheetId="2" r:id="rId3"/>
-    <sheet name="任务" sheetId="1" r:id="rId4"/>
-    <sheet name="其他" sheetId="5" r:id="rId5"/>
-    <sheet name="MT 上版本" sheetId="6" r:id="rId6"/>
-    <sheet name="MT 1.15 版本" sheetId="7" r:id="rId7"/>
-    <sheet name="MT1.17版本" sheetId="8" r:id="rId8"/>
-    <sheet name="1.18版本" sheetId="9" r:id="rId9"/>
+    <sheet name="体验流程" sheetId="10" r:id="rId1"/>
+    <sheet name="对局" sheetId="3" r:id="rId2"/>
+    <sheet name="成长" sheetId="4" r:id="rId3"/>
+    <sheet name="宠物" sheetId="2" r:id="rId4"/>
+    <sheet name="任务" sheetId="1" r:id="rId5"/>
+    <sheet name="其他" sheetId="5" r:id="rId6"/>
+    <sheet name="MT 上版本" sheetId="6" r:id="rId7"/>
+    <sheet name="MT 1.15 版本" sheetId="7" r:id="rId8"/>
+    <sheet name="MT1.17版本" sheetId="8" r:id="rId9"/>
+    <sheet name="1.18版本" sheetId="9" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'MT 1.15 版本'!$A$1:$E$70</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'MT 上版本'!$A$1:$F$92</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">任务!$A$1:$F$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">其他!$A$1:$F$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">宠物!$A$1:$F$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">对局!$A$1:$G$81</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">成长!$A$1:$E$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'MT 1.15 版本'!$A$1:$E$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'MT 上版本'!$A$1:$F$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">成长!$A$1:$E$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">宠物!$A$1:$F$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">对局!$A$1:$G$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">其他!$A$1:$F$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">任务!$A$1:$F$27</definedName>
   </definedNames>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
@@ -41,474 +42,474 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="499">
   <si>
     <t>初始送了2只，召唤了1只，一共3只怪？怎么记得应该是2只怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>宠物召唤成功的效果不明显，来点特效吧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>对局开始的第一次攻击会卡顿一下</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>云彩遮不住背景</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>初始给了两只一样的怪，好像意义不大，是不是差异化一点，一个物攻一个法攻？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>任务领取奖励只有特效没有音效，感觉不爽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>缺少UI音效，感觉比较空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>图鉴中可以合成的宠物没有明显的提示（除了碎片数），最好是边框亮或者显示在上方或者其他明显提示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>部分通用技能音效时间较长，在多倍速的时候不太和谐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>相同音效在叠加时的声音比较刺耳，多个相同音效同时触发时应该只播放一个</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>小怪小丑大招音效与动作不符</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>蛙鬼的血条高度比例不正确</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>对局切换时回血的特效与移动动作不太吻合</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1-5花魄boss大招只打了一下</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>曼陀罗大招施法音效没有</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>通用技能特效和名称好像不太对应，比如有的是xx球，特效效果是水柱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>曼陀罗简直太屌了，单挑1-6，从第一关两个小丑就挂了，曼陀罗一直挺着最后把小丑干死了（小丑暴击才80多点血，曼陀罗大招可以回260血，3回合可以用一次大招）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>最后一个怪物死的一瞬间会卡顿一下</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>好像第一次弹出升级提示是4级的时候…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>在中文设置下，宠物名称有的是中文有的是英文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>宠物技能升级的反馈不明显，特效缺失，最好来点音效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>任务描述过于简单，建议详细点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>任务跳转不完善，所有都跳到副本好像…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>小怪小丑普通攻击比大招打的多，普通486，大招356</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Ai不可选的目标在集火的时候也不能受到大招攻击？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>获得狼人碎片后没有引导我去召唤，导致少一只怪（之前只引导了一次）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>升级技能时切换技能图标会比较卡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>fps的显示换个地方，挡着UI了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>刷新商店后，任务没有完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>装备强化和装备打造的意思一样么？好像没成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>日常任务没有多语言，看不懂目标是啥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>防御还是不太好理解，有的时候刚放完大招，然后就防御了，感觉特别虽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>宠物详细信息界面的底图显示有问题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>商店有一个3000钻的支援型护腕是什么鬼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>商店显示刷新消耗20钻，实际扣了5钻</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>狼人的决斗申请没有升级提升，这种没有伤害或者治疗效果的技能就不用升级了吧？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2-5凯瑞斯 上debuff的命中特效没有配置attach</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>装备升阶的任务前应该有个分解任务，不然不知道升阶石头哪里获得</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">2-8简直太难了 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>己方不知道等级，一样的怪 换一换就不知道哪只是厉害的了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>胖胖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>木木</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>狼人弱点在手上，手老动，稍微有点仓促（以后尽量还是不要设计这种弱点）。之前说待机时候照，这个不太符合玩家曹组奥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>走音草弱点动作幅度也大</t>
   </si>
   <si>
     <t>阿穆特圈圈脸用物理点点点大招不容易点到</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>第二章龙宫童子那关比较轻松，前面几关和第8关都好难，第8关AOE很伤，直接秒。2-8boss弱点不能被AOE么，一个一个打过不了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>第二章好难啊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2-8boss好小，没有气势</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2-8打了几遍都过不了 放弃了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>前几关掉的装备和给的宠物类型不匹配么？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>木木</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>木木</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>玩家比宠物升级快很多？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>强化材料不配掉落指引？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>装备进阶到绿任务刷出晚，前面强化石用的很分散，不容易完成任务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>好不容易攒了8个材料 ，强化还失败 ，简直不想玩了，还木有扫荡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>角色10级 宠物才6级  宠物升级太慢了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>木木</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>初始多给了一只水丑</t>
   </si>
   <si>
     <t>小星</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>阿姆特技能多语言未配置</t>
   </si>
   <si>
     <t>小星</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>皮影AI弱点名称错误（已修改）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2-8大树的数值待调整（目前攻击力过强）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>狼人大招需削弱，狼人的左护腕不太好点，右手护腕打掉未消失</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>任务 go now 后点击返回会返回副本选择界面，任务跳转有问题（bug）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>任务的勾一直都在会误导我有任务完成，同时任务刷新为重进任务界面，点击返回不会刷新，每日切页一开始木有关注（木有多语言）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>任务给的东西和提示不匹配</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>装备强化任务完成不了，且目前投放的装备强化石不足以装备强化+7以上（概率和数量不够）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>小星</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>副本入口显示的掉落很少能看到，但是有时能看到些别的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>装备前期主要通过商店投放，导致玩家宠物战力参差不齐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>前期投放宠物经验药过多，导致打1-3,1-4玩家自己的宠物有点强；后期宠物经验跟不上，导致2章的等级跟不上，属性达不到预期值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>伤害数字与暴击，克制等伤害数字同时弹出有点互相挡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>碎片合成宠物的性格可能有问题（待确认）</t>
   </si>
   <si>
     <t>游戏中卡顿现象较严重（对局会有，宠物界面、图签、商店首次开启较严重）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>宠物显示可装备装备，点进去却啥也木有（有可能卡顿造成）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>宠物合成的序列存在问题。。。需要拖拽才能找到对应的宠物。。并且积满碎片时还现实为灰色不明显。建议将存在有碎片根据碎片收集百分比作为优先排列规则。。同时又碎片时显示为亮色。积满时应该给一个标志</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>老李</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>错误配置。。法系装备数据异常（已修复），多投放了1只小丑。。后面更新配置后存在同步问题。。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>强化前期反馈感觉比较容易失败。。已做调整。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>老李</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1-3 狼人对玩家操作要求较强。。。建议将该BOSS挪后</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>老李</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>刷新商店消耗不一致</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>老李</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>商店商品排列未能如配置排列而是随机排列</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>部分商品消耗种类存在问题。。。我会去查看</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>日常任务开放等级过早。。。会调后</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>扫荡开放感觉过晚。。。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>任务奖励给了扫荡卷，又不能扫荡功能，什么情况？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>升级提示当前活力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>获得宠物后宠物特性不明显</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>上T后对于T的理解不够</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>装备强化后提升不够明显。。。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>技能提升效果不明显</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>属性相克伤害权重过大</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>小试身手的任务奖励显示给了曼陀罗碎片30个，但实际没给，是在下一个任务完成才给的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>每次回到主界面都要手动点开功能按钮，很麻烦，最好默认就是开启状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>大街-4的河童技能tips里有描述是草属性伤害，有描述是木属性伤害，玩家自己的宠物花魄也是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>为啥狼人是水属性，物理和法术伤害却是暗属性的？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>第一章前三个（或者前两个）副本的弱点不找不打对过关也没啥影响，体验时候故意去找，还会发生没找到的时候boss已经死了，是不是考虑把前两关做成教学似的强制找弱点，一来不至于将弱点设计浪费，二来也强化找弱点教学的练习</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>大街-4，boss照出来两个弱点，正在看弱点提示的时候，boss就死了，第三个弱点还没找呢，感觉这样弱点是不是有点浪费了（人物3级，通关宠物：1个3级木曼陀罗，2个3级水小丑）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>花小仙子任务的上一个任务获得了宠物装备，装上装备后发现装备可以打造，但是缺少强化石，然后查看花小仙子任务，目标为通关1-5，而1-5掉落的是装备进阶石，总觉得有点奇怪（第一反应是应该掉落强化石的）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>穿戴装备的任务为啥不在拿到第一个装备后就有？而是有了第一个装备后过了好几个任务后才出现，而且穿个装备感觉挺简单的事，给的奖励却明显比其他任务多，感觉有点奇怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>强化装备的任务给了很多进阶石奖励，可这个阶段根本用不上</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>在第一章的时候一直想要装备强化石，为啥从1-5开始到1-8掉的都是装备进阶石，想弄强化石也没有地方弄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>很早就拿到6个宠物，然后有了很多装备，不知道有进阶绿的任务就随意用了强化石，导致那个任务死活完不成了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>刷新商店的任务刷新后，任务界面没有显示完成，关掉任务界面后再打开才显示完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>日常任务名称和目标全都没有多语言，看不懂是啥，而且日常任务一出，就有好几个都是已完成状态，不考虑是出了之后让玩家再做一次才完成么？（这点不是很纠结）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>第二章的副本很难得到3星，前面几关通关没什么问题，大多是有惊无险的感觉（但第二章应该是不太难的吧？）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>宠物升级跟不上，玩家10级了，宠物还是6级左右的样子，打到第二章副本时没有像第一章那么轻松，想提升却找不到办法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>装备强化石没有获得途径，武器的获得途径貌似都是乱的？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1倍速略慢，2倍速略快，3倍速没法玩</t>
@@ -539,21 +540,21 @@
     <rPh sb="17" eb="18">
       <t>wan</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>木木</t>
     <rPh sb="0" eb="1">
       <t>mu'mu</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>BG-1877</t>
   </si>
   <si>
     <t>测任务时提</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>MT 上一个版本</t>
@@ -872,667 +873,667 @@
   </si>
   <si>
     <t>提问</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>解决人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>解决方案</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>五行系数会否太大</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>老李</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>改新账号数据库</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>同1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>同1， 已改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>先这样</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>小星， 设计如此。考虑投放问题， 单伤法系？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>小星</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>22.1版本加一个任务， 花魄等都加， 只是为了引导</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Bug 已改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>22.1 先不改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>额外， MT考虑商店开放时间，扫荡， 合成分解。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">6级6只宠了就？五级后感觉特别陡，宠物经验药感觉太稀有。 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>副本产出增加， 章节奖励？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>配置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>配置，考虑一下能22号前做好哪些。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>加支线，强化成功率（已经改）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>同9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>投放类型和副本切割关联</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>胖子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>确认一下8级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>怪物等级升级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>金币投放过量（或者是让你去商店买东西的引导）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>方案</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>胖子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>提Bug</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>胖子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>MT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>切短一点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AOE同一个时间可以给程序需求只放一个</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>22号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>后</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>后</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>宠物详情界面的性格部分显示不正确</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>改完，职业称呼（小星）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>临时MT剪掉，己方怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>前</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>调整</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>后</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>已改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>胖子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>后</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>大招特效总体考虑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>小星</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>给Zzbug</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>检查是否有bug</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>考虑AI逻辑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>小星</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>前</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>后</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>前</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>暂时不改， 冒字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>后</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>先不解决</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>后</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>找MT商量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>验收， 找MT商量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>已改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Bug</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>已改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>后</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>大招调弱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>小星</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1-1， 本体血多一点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>星</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>看看其他游戏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Boss血条被打的时候会震</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>星</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>手动找在对局最后时刻按了后会被耗掉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>木木</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>雪姬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>给需求</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>后</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>改好</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>木木</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>zz在改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>提bug</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>临时方案，更明显能合成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>文案风格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>老李</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>配置，能配的都配</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Bug</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Bug</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>兔桑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>配置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>先不管</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>改图标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>同</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>临时改地方</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>bug</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>临时+号默认打开</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>跟小雪商量一下。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>胖子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>已改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>同</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>给美术需求</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>同</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>雷神回答</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>给美术需求</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>小星</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>后</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>负责</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>方案</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>跟美术说清楚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>后</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>前</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>给任务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>胖子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>跟美术ZZ商量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>后</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>后</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>临时调小</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>确认</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>雷神</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>后</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>胖子，MT商量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>已改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>已改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>已改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>新版已改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>新版已改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>宏观</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>尽量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>胖子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>跟美术要个NIUX图标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>跟美术要资源，看看大树的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>胖子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>跟美术商量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>小丑的胸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>临时调</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>帆爷改通用， 临时已改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>不是问题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>临时去掉页签</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>雪姬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>再看，已改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>长按</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>问问程序， 好改就先改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>改名字+unit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>小星</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>看看数值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>以后调整</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>小雪+胖子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>看看</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>小雪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>看大家</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>已改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>同前面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>弱点提示（河童）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>文案方向有问题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>MT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>BUG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2-7女妖血条太靠下</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">5s上 2-8的小人不好选中 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>后</t>
     <rPh sb="0" eb="1">
       <t>hou</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>胖子</t>
     <rPh sb="0" eb="1">
       <t>pang'zi</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>前</t>
     <rPh sb="0" eb="1">
       <t>qian</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>老李</t>
     <rPh sb="0" eb="1">
       <t>lao'li</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>找程序改</t>
@@ -1545,26 +1546,26 @@
     <rPh sb="3" eb="4">
       <t>gai</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>敌方特效过大？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>公会入口要不要换回副本啊，给公会重新弄个入口？主界面的图标全是缩起来的，每次点很不方便（包括副本、宠物、任务）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
     <rPh sb="0" eb="1">
       <t>xue</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1910 1911</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>多了一个joker</t>
@@ -1841,19 +1842,62 @@
   </si>
   <si>
     <t>以后找时间</t>
+  </si>
+  <si>
+    <t>欢迎大家体验这个版本。 这次体验主要模拟上线时候大概前3小时的内容。</t>
+  </si>
+  <si>
+    <t>其中主要包括， 第一二章的所有副本， 成长， 和战斗数值。 </t>
+  </si>
+  <si>
+    <t>有几点要跟大家说明的。</t>
+  </si>
+  <si>
+    <t>请大家建立一个新账号， 选择3.private_RD服务器</t>
+  </si>
+  <si>
+    <t>这次没有新手引导， 加了以后总体时间会有所延长。</t>
+  </si>
+  <si>
+    <t>部分引导我们透过任务投放， 所以大家多注意有没有任务没完成的。</t>
+  </si>
+  <si>
+    <t>上次体验的对局功能需求大部分没有改， 希望等这次一并改。 </t>
+  </si>
+  <si>
+    <t>第一章和第二章的弱点图标逻辑是不同的， 大家看看感受如何。</t>
+  </si>
+  <si>
+    <t>其中有些任务的指引是错误（功能没做）</t>
+  </si>
+  <si>
+    <t>冰雪女王， 场景资源暂没， 所以配上小丑， 和冥河场景。</t>
+  </si>
+  <si>
+    <t>请大家集中对局战斗操作/反馈， 成长/副本掉落/任务奖励， 和战斗数值的体验，并提出意见。 </t>
+  </si>
+  <si>
+    <t>同时， 麻烦大家把第一章完成时， 截图一下当时拥有的宠物， 和完成需时，第二章完成也记录拥有宠物和需要时间。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1864,7 +1908,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1884,7 +1928,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1892,7 +1936,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1900,7 +1944,7 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1942,31 +1986,31 @@
   </borders>
   <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1976,31 +2020,31 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2012,23 +2056,24 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="15">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2330,9 +2375,518 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
+        <v>1</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
+        <v>2</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="26">
+        <v>3</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="26">
+        <v>4</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
+        <v>5</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="26">
+        <v>6</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="26">
+        <v>7</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>498</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="210" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="61.33203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B1" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="C1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="C2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="C3" t="s">
+        <v>465</v>
+      </c>
+      <c r="D3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="C4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="C5" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="E6" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="C7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E7" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="C8" t="s">
+        <v>452</v>
+      </c>
+      <c r="E8" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="E9" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="C10" t="s">
+        <v>470</v>
+      </c>
+      <c r="E10" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="C11" t="s">
+        <v>455</v>
+      </c>
+      <c r="E11" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="C13" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="C14" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="C15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A16" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="C16" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="C17" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="C18" t="s">
+        <v>474</v>
+      </c>
+      <c r="E18" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="E21" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A22" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="C22" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A23" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="C23" t="s">
+        <v>475</v>
+      </c>
+      <c r="E23" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="C24" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="C25" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="C26" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="C28" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="C29" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="C30" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="C31" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="C32" t="s">
+        <v>479</v>
+      </c>
+      <c r="D32" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="C33" t="s">
+        <v>482</v>
+      </c>
+      <c r="E33" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="E34" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="C35" t="s">
+        <v>485</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A72" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
@@ -2570,7 +3124,7 @@
       </c>
       <c r="I23" s="3"/>
     </row>
-    <row r="25" spans="1:9" ht="64" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="48" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>12</v>
       </c>
@@ -2973,7 +3527,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>31</v>
       </c>
@@ -3029,7 +3583,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="64" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="48" x14ac:dyDescent="0.25">
       <c r="B73" s="12" t="s">
         <v>105</v>
       </c>
@@ -3101,13 +3655,13 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G81"/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
@@ -3486,7 +4040,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="48" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="32" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>16</v>
       </c>
@@ -3614,12 +4168,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E63"/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
@@ -3824,13 +4378,13 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F21"/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -4090,13 +4644,13 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F27"/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
@@ -4268,12 +4822,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F17"/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F91"/>
   <sheetViews>
@@ -4281,14 +4835,14 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="51.83203125" style="9" customWidth="1"/>
     <col min="3" max="3" width="33.33203125" style="10" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>122</v>
       </c>
@@ -4302,12 +4856,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>123</v>
       </c>
@@ -4321,7 +4875,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>124</v>
       </c>
@@ -4332,7 +4886,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="42" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>125</v>
       </c>
@@ -4349,7 +4903,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>126</v>
       </c>
@@ -4360,7 +4914,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>127</v>
       </c>
@@ -4377,7 +4931,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="42" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>128</v>
       </c>
@@ -4391,7 +4945,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>129</v>
       </c>
@@ -4402,7 +4956,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>130</v>
       </c>
@@ -4416,7 +4970,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
         <v>131</v>
       </c>
@@ -4430,12 +4984,12 @@
         <v>332</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
         <v>42371</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
         <v>132</v>
       </c>
@@ -4446,7 +5000,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
         <v>133</v>
       </c>
@@ -4454,7 +5008,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
         <v>134</v>
       </c>
@@ -4468,12 +5022,12 @@
         <v>337</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="9">
         <v>42372</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
         <v>135</v>
       </c>
@@ -4487,7 +5041,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
         <v>136</v>
       </c>
@@ -4498,17 +5052,17 @@
         <v>336</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="120" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="112" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
         <v>139</v>
       </c>
@@ -4516,7 +5070,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
         <v>140</v>
       </c>
@@ -4527,12 +5081,12 @@
         <v>342</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="9">
         <v>42373</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
         <v>141</v>
       </c>
@@ -4546,12 +5100,12 @@
         <v>332</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
         <v>143</v>
       </c>
@@ -4565,7 +5119,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
         <v>144</v>
       </c>
@@ -4576,12 +5130,12 @@
         <v>344</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="9">
         <v>42375</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="24" t="s">
         <v>145</v>
       </c>
@@ -4595,7 +5149,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
         <v>146</v>
       </c>
@@ -4612,12 +5166,12 @@
         <v>346</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="9">
         <v>42376</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
         <v>147</v>
       </c>
@@ -4631,12 +5185,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="9">
         <v>42377</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A49" s="9" t="s">
         <v>148</v>
       </c>
@@ -4650,7 +5204,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A50" s="9" t="s">
         <v>149</v>
       </c>
@@ -4664,12 +5218,12 @@
         <v>350</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="9">
         <v>42401</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="9" t="s">
         <v>150</v>
       </c>
@@ -4683,7 +5237,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="9" t="s">
         <v>151</v>
       </c>
@@ -4697,7 +5251,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="120" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="112" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
         <v>152</v>
       </c>
@@ -4705,12 +5259,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="9">
         <v>42402</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A60" s="9" t="s">
         <v>153</v>
       </c>
@@ -4724,7 +5278,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A61" s="9" t="s">
         <v>154</v>
       </c>
@@ -4741,12 +5295,12 @@
         <v>386</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="9">
         <v>42403</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A65" s="9" t="s">
         <v>155</v>
       </c>
@@ -4763,12 +5317,12 @@
         <v>386</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="9">
         <v>42404</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="9" t="s">
         <v>156</v>
       </c>
@@ -4782,7 +5336,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="9" t="s">
         <v>157</v>
       </c>
@@ -4790,7 +5344,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="9" t="s">
         <v>158</v>
       </c>
@@ -4804,12 +5358,12 @@
         <v>354</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="9">
         <v>42405</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="9" t="s">
         <v>159</v>
       </c>
@@ -4823,7 +5377,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A76" s="9" t="s">
         <v>160</v>
       </c>
@@ -4837,12 +5391,12 @@
         <v>355</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="9">
         <v>42406</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="9" t="s">
         <v>161</v>
       </c>
@@ -4856,7 +5410,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="9" t="s">
         <v>162</v>
       </c>
@@ -4870,12 +5424,12 @@
         <v>349</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="9">
         <v>42407</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="9" t="s">
         <v>163</v>
       </c>
@@ -4892,12 +5446,12 @@
         <v>388</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="9" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="9" t="s">
         <v>165</v>
       </c>
@@ -4914,12 +5468,12 @@
         <v>388</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="9">
         <v>42408</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="9" t="s">
         <v>166</v>
       </c>
@@ -4938,13 +5492,13 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F92"/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E70"/>
   <sheetViews>
@@ -4952,14 +5506,14 @@
       <selection activeCell="E70" sqref="A70:E70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="35.1640625" style="10" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="10"/>
     <col min="4" max="4" width="38.6640625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
         <v>333</v>
       </c>
@@ -4970,7 +5524,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>193</v>
       </c>
@@ -4984,7 +5538,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>194</v>
       </c>
@@ -4995,7 +5549,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>195</v>
       </c>
@@ -5009,22 +5563,22 @@
         <v>388</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>222</v>
       </c>
@@ -5038,22 +5592,22 @@
         <v>388</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
         <v>201</v>
       </c>
@@ -5061,7 +5615,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
         <v>202</v>
       </c>
@@ -5072,17 +5626,17 @@
         <v>363</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
         <v>205</v>
       </c>
@@ -5090,27 +5644,27 @@
         <v>364</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="11" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="11" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
         <v>208</v>
       </c>
@@ -5124,7 +5678,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
         <v>368</v>
       </c>
@@ -5138,7 +5692,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
         <v>209</v>
       </c>
@@ -5149,7 +5703,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
         <v>210</v>
       </c>
@@ -5160,7 +5714,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
         <v>211</v>
       </c>
@@ -5174,12 +5728,12 @@
         <v>388</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="11">
         <v>42375</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="10" t="s">
         <v>212</v>
       </c>
@@ -5193,7 +5747,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="10" t="s">
         <v>213</v>
       </c>
@@ -5207,12 +5761,12 @@
         <v>386</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="11">
         <v>42377</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="10" t="s">
         <v>214</v>
       </c>
@@ -5226,7 +5780,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="10" t="s">
         <v>215</v>
       </c>
@@ -5240,12 +5794,12 @@
         <v>386</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="11">
         <v>42401</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
         <v>216</v>
       </c>
@@ -5256,27 +5810,27 @@
         <v>378</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="11">
         <v>42404</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A60" s="10" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="11">
         <v>42407</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="10" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="10" t="s">
         <v>219</v>
       </c>
@@ -5290,12 +5844,12 @@
         <v>388</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="10" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="10" t="s">
         <v>380</v>
       </c>
@@ -5311,12 +5865,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E70"/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
@@ -5324,12 +5878,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>412</v>
       </c>
@@ -5343,505 +5897,98 @@
         <v>415</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>411</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="210" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="61.33203125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="C1" t="s">
-        <v>413</v>
-      </c>
-      <c r="D1" t="s">
-        <v>448</v>
-      </c>
-      <c r="E1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="C2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>463</v>
-      </c>
-      <c r="C3" t="s">
-        <v>465</v>
-      </c>
-      <c r="D3" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>463</v>
-      </c>
-      <c r="C4" t="s">
-        <v>464</v>
-      </c>
-      <c r="D4" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="C5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="E6" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="C7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E7" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="C8" t="s">
-        <v>452</v>
-      </c>
-      <c r="E8" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="E9" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="C10" t="s">
-        <v>470</v>
-      </c>
-      <c r="E10" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="C11" t="s">
-        <v>455</v>
-      </c>
-      <c r="E11" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="C13" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="C14" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="C15" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="C16" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="C17" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="C18" t="s">
-        <v>474</v>
-      </c>
-      <c r="E18" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="E21" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="C22" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
-        <v>438</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="C23" t="s">
-        <v>475</v>
-      </c>
-      <c r="E23" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="C24" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="C25" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="C26" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="C28" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="C29" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="C30" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
-        <v>446</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>478</v>
-      </c>
-      <c r="C31" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="C32" t="s">
-        <v>479</v>
-      </c>
-      <c r="D32" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="C33" t="s">
-        <v>482</v>
-      </c>
-      <c r="E33" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
-        <v>481</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="E34" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="C35" t="s">
-        <v>485</v>
-      </c>
-    </row>
-  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>